--- a/references/star_schema_column_actions.xlsx
+++ b/references/star_schema_column_actions.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\big_data_eng\airflow_airbnb\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\airflow_airbnb\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42560E69-2186-4A48-B636-2A34D0047CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE284954-B913-4123-BC19-7AD03A91A80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="21150" xr2:uid="{23F6FEA5-55B3-49F9-9C4D-3E6A8C5F0C91}"/>
+    <workbookView xWindow="38400" yWindow="1020" windowWidth="15960" windowHeight="15750" xr2:uid="{23F6FEA5-55B3-49F9-9C4D-3E6A8C5F0C91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="150">
   <si>
     <t>table</t>
   </si>
@@ -492,6 +495,9 @@
   </si>
   <si>
     <t>In case the point-in-polygon method doesn't work.</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -510,21 +516,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -559,16 +569,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -886,11 +894,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2DF902-087A-4B06-BD10-A13B30151084}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,34 +907,34 @@
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,14 +942,20 @@
         <v>84</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,12 +965,15 @@
       <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,14 +983,14 @@
       <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,14 +1000,14 @@
       <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E6" t="s">
@@ -1006,8 +1024,9 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1034,7 @@
         <v>86</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
@@ -1025,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1052,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E8" t="s">
@@ -1043,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E9" t="s">
@@ -1069,7 +1088,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E10" t="s">
@@ -1077,6 +1096,9 @@
       </c>
       <c r="F10" t="s">
         <v>79</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1111,7 @@
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E11" t="s">
@@ -1107,7 +1129,7 @@
         <v>86</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E12" t="s">
@@ -1117,7 +1139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E13" t="s">
@@ -1143,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E14" t="s">
@@ -1161,7 +1183,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
@@ -1177,7 +1199,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1"/>
       <c r="E16" t="s">
         <v>78</v>
       </c>
@@ -1191,7 +1213,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
       <c r="E17" t="s">
         <v>78</v>
       </c>
@@ -1199,13 +1221,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E18" t="s">
@@ -1223,7 +1245,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
       <c r="E19" t="s">
         <v>78</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="1"/>
       <c r="E20" t="s">
         <v>78</v>
       </c>
@@ -1255,7 +1277,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
       <c r="E21" t="s">
         <v>78</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
       <c r="E22" t="s">
         <v>81</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E23" t="s">
@@ -1297,7 +1319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E24" t="s">
@@ -1321,7 +1343,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" t="s">
         <v>78</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1"/>
       <c r="E26" t="s">
         <v>78</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" t="s">
         <v>78</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1391,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
       <c r="E28" t="s">
         <v>81</v>
       </c>
@@ -1377,7 +1399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1409,7 @@
       <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E29" t="s">
@@ -1400,7 +1422,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1432,7 @@
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E30" t="s">
@@ -1420,7 +1442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
@@ -1438,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1468,7 @@
         <v>108</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E32" t="s">
@@ -1456,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E33" t="s">
@@ -1474,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1504,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E34" t="s">
@@ -1492,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1522,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E35" t="s">
@@ -1510,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E36" t="s">
@@ -1528,7 +1550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +1558,7 @@
         <v>114</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E37" t="s">
@@ -1546,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1576,7 @@
         <v>84</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E38" t="s">
@@ -1564,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1594,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E39" t="s">
@@ -1582,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>118</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="1"/>
       <c r="E40" t="s">
         <v>78</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>119</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E41" t="s">
@@ -1616,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1624,14 +1646,14 @@
         <v>84</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1639,14 +1661,14 @@
         <v>84</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1656,14 +1678,14 @@
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1673,14 +1695,14 @@
       <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1690,14 +1712,14 @@
       <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1707,48 +1729,48 @@
       <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1756,7 +1778,7 @@
         <v>99</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="1"/>
       <c r="E50" t="s">
         <v>81</v>
       </c>
@@ -1764,7 +1786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1772,14 +1794,14 @@
         <v>129</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1789,14 +1811,14 @@
       <c r="C52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1806,14 +1828,14 @@
       <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1823,14 +1845,14 @@
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1840,14 +1862,14 @@
       <c r="C55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1855,12 +1877,12 @@
         <v>99</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="1"/>
       <c r="E56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1868,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E57" t="s">
@@ -1878,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1888,14 +1910,14 @@
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1905,14 +1927,14 @@
       <c r="C59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1922,14 +1944,14 @@
       <c r="C60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1939,91 +1961,91 @@
       <c r="C61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="1"/>
       <c r="E62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="1"/>
       <c r="E63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="1"/>
       <c r="E64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="1"/>
       <c r="E65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="1"/>
       <c r="E66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="1"/>
       <c r="E67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="1"/>
       <c r="E68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2031,7 +2053,7 @@
         <v>86</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E69" t="s">
@@ -2041,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>129</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E70" t="s">
@@ -2059,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2069,14 +2091,14 @@
       <c r="C71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2086,14 +2108,14 @@
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2103,14 +2125,14 @@
       <c r="C73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2120,14 +2142,14 @@
       <c r="C74" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2137,7 +2159,7 @@
       <c r="C75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E75" t="s">
@@ -2145,6 +2167,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G75" xr:uid="{F927E878-485B-4432-9E77-D2E74558C550}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="host"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>